--- a/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Agile Github/CS-555-Agile_Project_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DF3E7-114B-9E45-A2C3-96A6B941F633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5183017-5023-9A47-BA8F-3761E2440FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15480" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="225">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -725,6 +723,30 @@
   </si>
   <si>
     <t>31-35</t>
+  </si>
+  <si>
+    <t>US01()</t>
+  </si>
+  <si>
+    <t>US02()</t>
+  </si>
+  <si>
+    <t>371-401</t>
+  </si>
+  <si>
+    <t>403 - 416</t>
+  </si>
+  <si>
+    <t>test_userstory01()</t>
+  </si>
+  <si>
+    <t>test_userstory02()</t>
+  </si>
+  <si>
+    <t>18-20</t>
+  </si>
+  <si>
+    <t>22-24</t>
   </si>
 </sst>
 </file>
@@ -3109,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3198,16 +3220,33 @@
       <c r="F2">
         <v>600</v>
       </c>
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J2" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>219</v>
+      </c>
       <c r="M2" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="N2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -3228,11 +3267,32 @@
       <c r="F3">
         <v>600</v>
       </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J3" s="17" t="s">
         <v>207</v>
       </c>
+      <c r="K3" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="M3" s="17" t="s">
         <v>212</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">

--- a/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5183017-5023-9A47-BA8F-3761E2440FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116BFF1-C939-7E41-B013-0633BEEF4B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15480" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="233">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,6 +747,30 @@
   </si>
   <si>
     <t>22-24</t>
+  </si>
+  <si>
+    <t>236-274</t>
+  </si>
+  <si>
+    <t>277-316</t>
+  </si>
+  <si>
+    <t>us_05_marriage_before_death</t>
+  </si>
+  <si>
+    <t>us_06_divorce_before_death</t>
+  </si>
+  <si>
+    <t>test_userstory05()</t>
+  </si>
+  <si>
+    <t>test_userstory06()</t>
+  </si>
+  <si>
+    <t>37-45</t>
+  </si>
+  <si>
+    <t>47-56</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3131,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A3" zoomScale="116" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3460,16 +3484,33 @@
       <c r="F8">
         <v>600</v>
       </c>
+      <c r="G8">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J8" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="K8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>225</v>
+      </c>
       <c r="M8" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
@@ -3490,11 +3531,32 @@
       <c r="F9">
         <v>600</v>
       </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J9" s="17" t="s">
         <v>207</v>
       </c>
+      <c r="K9" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="M9" s="17" t="s">
         <v>212</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">

--- a/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116BFF1-C939-7E41-B013-0633BEEF4B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CF20B-1C44-2641-BFE7-9CE60289B093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="241">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -771,6 +773,30 @@
   </si>
   <si>
     <t>47-56</t>
+  </si>
+  <si>
+    <t>us03()</t>
+  </si>
+  <si>
+    <t>us04()</t>
+  </si>
+  <si>
+    <t>185-200</t>
+  </si>
+  <si>
+    <t>211-224</t>
+  </si>
+  <si>
+    <t>test_userstory04()</t>
+  </si>
+  <si>
+    <t>test_userstory03()</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>06-11.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +990,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1015,6 +1041,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1266,6 +1295,9 @@
                 <c:pt idx="0">
                   <c:v>42411</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>42427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1276,7 +1308,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2905,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -3097,10 +3132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3137,10 +3172,21 @@
         <v>42411</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>42427</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3155,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="116" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3432,11 +3478,32 @@
       <c r="F6">
         <v>600</v>
       </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J6" s="17" t="s">
         <v>207</v>
       </c>
+      <c r="K6" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="M6" s="17" t="s">
         <v>212</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -3458,11 +3525,32 @@
       <c r="F7">
         <v>600</v>
       </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J7" s="17" t="s">
         <v>207</v>
       </c>
+      <c r="K7" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="M7" s="17" t="s">
         <v>212</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">

--- a/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570CF20B-1C44-2641-BFE7-9CE60289B093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35141C62-B588-3745-B225-304548CE53D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
                   <c:v>42411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42427</c:v>
+                  <c:v>42423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2940,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -3134,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3180,13 +3180,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>42427</v>
+        <v>42423</v>
       </c>
       <c r="B3">
         <v>24</v>
       </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
       <c r="D3">
         <v>238</v>
+      </c>
+      <c r="E3">
+        <v>280</v>
+      </c>
+      <c r="F3" s="9">
+        <v>50.96</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3211,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3388,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>206</v>
@@ -3435,7 +3444,7 @@
         <v>25</v>
       </c>
       <c r="H5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>206</v>
@@ -3576,7 +3585,7 @@
         <v>38</v>
       </c>
       <c r="H8">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>206</v>
@@ -3623,7 +3632,7 @@
         <v>39</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>206</v>

--- a/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Agile Github/CS-555-Agile_Project_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D193B1-31B1-744F-906F-F5D84D2C173A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBCAB16-6486-D147-ABE9-2787B01A1DCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12520" yWindow="460" windowWidth="15520" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="257">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -821,6 +819,30 @@
   </si>
   <si>
     <t>14-16</t>
+  </si>
+  <si>
+    <t>US21()</t>
+  </si>
+  <si>
+    <t>US22()</t>
+  </si>
+  <si>
+    <t>397-419</t>
+  </si>
+  <si>
+    <t>427-453</t>
+  </si>
+  <si>
+    <t>test_userstory21()</t>
+  </si>
+  <si>
+    <t>test_userstory22()</t>
+  </si>
+  <si>
+    <t>77-79</t>
+  </si>
+  <si>
+    <t>81-83</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2357,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2865,7 +2887,7 @@
         <v>187</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -2882,7 +2904,7 @@
         <v>187</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -3710,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3983,11 +4005,32 @@
       <c r="F8">
         <v>120</v>
       </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
       <c r="J8" t="s">
         <v>241</v>
       </c>
+      <c r="K8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" t="s">
+        <v>251</v>
+      </c>
       <c r="M8" t="s">
         <v>212</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -4009,11 +4052,32 @@
       <c r="F9">
         <v>120</v>
       </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
       <c r="J9" t="s">
         <v>241</v>
       </c>
+      <c r="K9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" t="s">
+        <v>252</v>
+      </c>
       <c r="M9" t="s">
         <v>212</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBCAB16-6486-D147-ABE9-2787B01A1DCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837C9B8-7F19-0F42-9435-9E60C8F0B660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="460" windowWidth="15520" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27960" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2379,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -3732,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3997,7 +3997,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>60</v>
@@ -4044,7 +4044,7 @@
         <v>187</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -4181,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
